--- a/DataSources.xlsx
+++ b/DataSources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A445600-05D6-4D09-9A95-88E8D51A606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B606801-9E67-4853-8804-1DEBBA2F2FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3EF8ABA0-F62A-49A4-AC27-CE9CB6EB98F7}"/>
+    <workbookView xWindow="28690" yWindow="2440" windowWidth="24220" windowHeight="13120" xr2:uid="{3EF8ABA0-F62A-49A4-AC27-CE9CB6EB98F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>API</t>
   </si>
@@ -60,111 +60,157 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>s3://insights-canpotex-downloads-sandboxlz/Fred-downloads/EXUSEU/EXUSEU.csv</t>
-  </si>
-  <si>
     <t>US GDP - Historical</t>
   </si>
   <si>
-    <t>s3://insights-canpotex-downloads-sandboxlz/Fred-downloads/US_GDP/US_GDP.csv</t>
-  </si>
-  <si>
     <t>EIA</t>
   </si>
   <si>
     <t>Henry Hub Gas Price Historical</t>
   </si>
   <si>
-    <t>s3://insights-canpotex-downloads-sandboxlz/EIA-downloads/HenryHubGasPrice/gasprice.csv</t>
-  </si>
-  <si>
     <t>Henry Hub Gas Price - Forecast STEO</t>
   </si>
   <si>
-    <t>s3://insights-canpotex-downloads-sandboxlz/EIA-downloads/HenryHubGasPrice/gaspricesteo.csv</t>
-  </si>
-  <si>
     <t>US GDP - Forecast STEO</t>
   </si>
   <si>
-    <t>s3://insights-canpotex-downloads-sandboxlz/EIA-downloads/HenryHubGasPrice/nominalGDP.csv</t>
-  </si>
-  <si>
     <t>OECD</t>
   </si>
   <si>
     <t>USD/EURO exchange rate - Forecast</t>
   </si>
   <si>
-    <t>s3://insights-canpotex-downloads-sandboxlz/OECD-downloads/EXCHUD/EXCHUD.csv</t>
-  </si>
-  <si>
     <t>FAO</t>
   </si>
   <si>
     <t>Total Fertilizer Production</t>
   </si>
   <si>
-    <t>s3://insights-canpotex-downloads-sandboxlz/FAO-downloads/totalFertilizationProductionHist/totalFertilizerProduction.csv</t>
-  </si>
-  <si>
     <t>Food Price Index</t>
   </si>
   <si>
-    <t>s3://insights-canpotex-downloads-sandboxlz/FAO-downloads/FoodPriceIndex/FoodPriceIndex-hist.csv</t>
-  </si>
-  <si>
     <t>Total Fertilizer Production - Forecast</t>
   </si>
   <si>
-    <t>Need Info</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAO </t>
   </si>
   <si>
     <t>Food Price Index - Forecast</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>s3://insights-canpotex-downloads-sandboxlz/FAO-downloads/FoodPriceIndex/FoodPriceIndex-forecast.csv</t>
-    </r>
-  </si>
-  <si>
     <t>SRC</t>
   </si>
   <si>
     <t>TYPE</t>
   </si>
   <si>
-    <t>USDEUR</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>FERT</t>
-  </si>
-  <si>
-    <t>FPI</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Frequency of Run</t>
+  </si>
+  <si>
+    <t>1.  </t>
+  </si>
+  <si>
+    <t>s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=fred/usecase=EXUSEU/EXUSEU.parquet</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>2.  </t>
+  </si>
+  <si>
+    <t>s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=fred/usecase=US_GDP/US_GDP.parquet</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>3.  </t>
+  </si>
+  <si>
+    <t>s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=eia/usecase=HenryHubGasPrice/gasprice.parquet</t>
+  </si>
+  <si>
+    <t>4.  </t>
+  </si>
+  <si>
+    <t>s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=eia/usecase=HenryHubGasPriceForecast/gaspricesteo.parquet</t>
+  </si>
+  <si>
+    <t>5.  </t>
+  </si>
+  <si>
+    <t>s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=eia/usecase=NominalGDP/NominalGDP.parquet</t>
+  </si>
+  <si>
+    <t>6.  </t>
+  </si>
+  <si>
+    <t>s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=oecd/usecase=EXCHUD/EXCHUD.parquet</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>7.  </t>
+  </si>
+  <si>
+    <t>s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=fao/usecase=totalFertilizationProductionHist/totalFertilizerProduction.parquet</t>
+  </si>
+  <si>
+    <t>8.  </t>
+  </si>
+  <si>
+    <t>s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=fao/usecase=FoodPriceIndex/FoodPriceIndex-hist.parquet</t>
+  </si>
+  <si>
+    <t>9.  </t>
+  </si>
+  <si>
+    <t>s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=fao/usecase=totalFertForecast/totalFertForecast.parquet</t>
+  </si>
+  <si>
+    <t>10.  </t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>fert_actual</t>
+  </si>
+  <si>
+    <t>fert_forecast</t>
+  </si>
+  <si>
+    <t>fpi_actual</t>
+  </si>
+  <si>
+    <t>fpi_forecast</t>
+  </si>
+  <si>
+    <t>gdp_actual</t>
+  </si>
+  <si>
+    <t>gdp_forecast</t>
+  </si>
+  <si>
+    <t>ng_actual</t>
+  </si>
+  <si>
+    <t>ng_forecast</t>
+  </si>
+  <si>
+    <t>usdeur_actual</t>
+  </si>
+  <si>
+    <t>usdeur_forecast</t>
   </si>
 </sst>
 </file>
@@ -213,19 +259,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,14 +291,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -260,124 +301,547 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,6 +852,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86475FD9-E9E3-4407-BDB4-0A3EC12F66E9}" name="Table2" displayName="Table2" ref="A1:H11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
+    <sortCondition ref="C1:C11"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C7D83ED6-755F-4306-A457-3F6CED970860}" name="#" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1BF275A4-9464-4885-9268-7F212BED4A70}" name="API" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{BEEAE549-2CD3-42E1-BE72-00BD465229BD}" name="SRC" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D3972C66-1249-4CEB-AC91-61DC21C7A190}" name="TYPE" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E24DC55F-F11A-403B-9C4F-35415C7F2BA4}" name="Download type" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9414E5DF-A2E5-4BB1-90F4-8390B2E10B67}" name="STATUS" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9DDBCE86-4D09-4D93-B33D-6515315E03D7}" name="S3 Location" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{12DE8A9E-D5BF-4C92-BCFF-0F95686BFAF7}" name="Frequency of Run" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,276 +1170,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9690B94-8EE9-4E17-964D-48FC3B30410C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
     <col min="5" max="5" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" customWidth="1"/>
     <col min="7" max="7" width="84.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:8" ht="39" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="B11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>22</v>
+      <c r="G11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="12"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/DataSources.xlsx
+++ b/DataSources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B606801-9E67-4853-8804-1DEBBA2F2FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63132AFF-8B2E-4242-B619-C2EFEE754570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="2440" windowWidth="24220" windowHeight="13120" xr2:uid="{3EF8ABA0-F62A-49A4-AC27-CE9CB6EB98F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3EF8ABA0-F62A-49A4-AC27-CE9CB6EB98F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>API</t>
   </si>
@@ -183,34 +183,28 @@
     <t>#</t>
   </si>
   <si>
-    <t>fert_actual</t>
-  </si>
-  <si>
-    <t>fert_forecast</t>
-  </si>
-  <si>
-    <t>fpi_actual</t>
-  </si>
-  <si>
-    <t>fpi_forecast</t>
-  </si>
-  <si>
-    <t>gdp_actual</t>
-  </si>
-  <si>
-    <t>gdp_forecast</t>
-  </si>
-  <si>
-    <t>ng_actual</t>
-  </si>
-  <si>
-    <t>ng_forecast</t>
-  </si>
-  <si>
-    <t>usdeur_actual</t>
-  </si>
-  <si>
-    <t>usdeur_forecast</t>
+    <t>FERT</t>
+  </si>
+  <si>
+    <t>FPI</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>USDEUR</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -415,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,29 +473,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -819,6 +796,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -833,12 +826,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -855,19 +850,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86475FD9-E9E3-4407-BDB4-0A3EC12F66E9}" name="Table2" displayName="Table2" ref="A1:H11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86475FD9-E9E3-4407-BDB4-0A3EC12F66E9}" name="Table2" displayName="Table2" ref="A1:I11" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
     <sortCondition ref="C1:C11"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C7D83ED6-755F-4306-A457-3F6CED970860}" name="#" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{1BF275A4-9464-4885-9268-7F212BED4A70}" name="API" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{BEEAE549-2CD3-42E1-BE72-00BD465229BD}" name="SRC" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D3972C66-1249-4CEB-AC91-61DC21C7A190}" name="TYPE" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E24DC55F-F11A-403B-9C4F-35415C7F2BA4}" name="Download type" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9414E5DF-A2E5-4BB1-90F4-8390B2E10B67}" name="STATUS" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9DDBCE86-4D09-4D93-B33D-6515315E03D7}" name="S3 Location" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{12DE8A9E-D5BF-4C92-BCFF-0F95686BFAF7}" name="Frequency of Run" dataDxfId="1"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C7D83ED6-755F-4306-A457-3F6CED970860}" name="#" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1BF275A4-9464-4885-9268-7F212BED4A70}" name="API" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BEEAE549-2CD3-42E1-BE72-00BD465229BD}" name="SRC" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{D3972C66-1249-4CEB-AC91-61DC21C7A190}" name="TYPE" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E24DC55F-F11A-403B-9C4F-35415C7F2BA4}" name="Download type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{9414E5DF-A2E5-4BB1-90F4-8390B2E10B67}" name="STATUS" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{9DDBCE86-4D09-4D93-B33D-6515315E03D7}" name="S3 Location" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{12DE8A9E-D5BF-4C92-BCFF-0F95686BFAF7}" name="Frequency of Run" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{3CC4B135-9275-4957-B984-AC4A6507195C}" name="INTERVAL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1170,17 +1166,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9690B94-8EE9-4E17-964D-48FC3B30410C}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" customWidth="1"/>
     <col min="5" max="5" width="34.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.90625" customWidth="1"/>
@@ -1188,7 +1184,7 @@
     <col min="8" max="8" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -1213,8 +1209,11 @@
       <c r="H1" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="I1" s="23" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
@@ -1239,8 +1238,11 @@
       <c r="H2" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1248,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>23</v>
@@ -1265,8 +1267,11 @@
       <c r="H3" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>22</v>
@@ -1291,8 +1296,11 @@
       <c r="H4" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1300,7 +1308,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>23</v>
@@ -1318,7 +1326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
@@ -1326,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>22</v>
@@ -1343,8 +1351,11 @@
       <c r="H6" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -1352,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>23</v>
@@ -1369,8 +1380,11 @@
       <c r="H7" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -1378,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>22</v>
@@ -1395,8 +1409,11 @@
       <c r="H8" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -1404,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>23</v>
@@ -1421,8 +1438,11 @@
       <c r="H9" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -1430,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>22</v>
@@ -1447,8 +1467,11 @@
       <c r="H10" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>37</v>
       </c>
@@ -1456,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>23</v>
@@ -1473,8 +1496,11 @@
       <c r="H11" s="19" t="s">
         <v>39</v>
       </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">

--- a/DataSources.xlsx
+++ b/DataSources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63132AFF-8B2E-4242-B619-C2EFEE754570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D140FA1D-2394-46A3-A171-6C4B3DFACF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3EF8ABA0-F62A-49A4-AC27-CE9CB6EB98F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{3EF8ABA0-F62A-49A4-AC27-CE9CB6EB98F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>API</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=fao/usecase=FoodPriceIndexForecast/FoodPriceIndex-forecast.parquet</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9690B94-8EE9-4E17-964D-48FC3B30410C}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1320,7 +1323,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>39</v>

--- a/DataSources.xlsx
+++ b/DataSources.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -172,13 +172,19 @@
     <t xml:space="preserve">s3://insights-shared-prod-data-lake-non-hr/CLEANED/EXTERNAL/system=oecd/usecase=EXCHUD/EXCHUD.parquet</t>
   </si>
   <si>
+    <t xml:space="preserve">G20CPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G20 – Percentage Change on the same period of the prvious year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InProgress</t>
+  </si>
+  <si>
     <t xml:space="preserve">EIA?</t>
   </si>
   <si>
     <t xml:space="preserve">E85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InProgress</t>
   </si>
   <si>
     <t xml:space="preserve">FertilizerWeek</t>
@@ -583,10 +589,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -958,19 +964,27 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -979,13 +993,13 @@
       <c r="A13" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
         <v>51</v>
@@ -1007,7 +1021,9 @@
       <c r="C14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
         <v>51</v>
@@ -1027,9 +1043,11 @@
         <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8" t="s">
         <v>51</v>
@@ -1046,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>55</v>
@@ -1068,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>56</v>
@@ -1090,10 +1108,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -1112,10 +1130,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -1126,7 +1144,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,7 +1155,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -1148,7 +1166,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,10 +1174,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
@@ -1170,55 +1188,99 @@
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="B22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="B23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
